--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="H2">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="I2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="J2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="N2">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="O2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="P2">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="Q2">
-        <v>22.24558606518045</v>
+        <v>16.15729134951111</v>
       </c>
       <c r="R2">
-        <v>200.2102745866241</v>
+        <v>145.4156221456</v>
       </c>
       <c r="S2">
-        <v>0.2811243112076439</v>
+        <v>0.1916002942484802</v>
       </c>
       <c r="T2">
-        <v>0.2811243112076439</v>
+        <v>0.1916002942484802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="H3">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="I3">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="J3">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,22 +617,22 @@
         <v>0.709422</v>
       </c>
       <c r="O3">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="P3">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="Q3">
-        <v>1.115334981077333</v>
+        <v>0.9505340433866666</v>
       </c>
       <c r="R3">
-        <v>10.038014829696</v>
+        <v>8.55480639048</v>
       </c>
       <c r="S3">
-        <v>0.01409483110053601</v>
+        <v>0.01127185234619129</v>
       </c>
       <c r="T3">
-        <v>0.01409483110053601</v>
+        <v>0.01127185234619129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="H4">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="I4">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="J4">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="N4">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="O4">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="P4">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="Q4">
-        <v>18.59513430033778</v>
+        <v>19.80442051395556</v>
       </c>
       <c r="R4">
-        <v>167.35620870304</v>
+        <v>178.2397846256</v>
       </c>
       <c r="S4">
-        <v>0.2349924298096341</v>
+        <v>0.2348495620838909</v>
       </c>
       <c r="T4">
-        <v>0.2349924298096341</v>
+        <v>0.2348495620838909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.709422</v>
       </c>
       <c r="I5">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="J5">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="N5">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="O5">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="P5">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="Q5">
-        <v>1.115334981077333</v>
+        <v>0.9505340433866666</v>
       </c>
       <c r="R5">
-        <v>10.038014829696</v>
+        <v>8.55480639048</v>
       </c>
       <c r="S5">
-        <v>0.01409483110053601</v>
+        <v>0.01127185234619129</v>
       </c>
       <c r="T5">
-        <v>0.01409483110053601</v>
+        <v>0.01127185234619129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.709422</v>
       </c>
       <c r="I6">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="J6">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,10 +803,10 @@
         <v>0.709422</v>
       </c>
       <c r="O6">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="P6">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="Q6">
         <v>0.05591995267599999</v>
@@ -815,10 +815,10 @@
         <v>0.503279574084</v>
       </c>
       <c r="S6">
-        <v>0.0007066776363069497</v>
+        <v>0.0006631234874282864</v>
       </c>
       <c r="T6">
-        <v>0.0007066776363069499</v>
+        <v>0.0006631234874282864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>0.709422</v>
       </c>
       <c r="I7">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="J7">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="N7">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="O7">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="P7">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="Q7">
-        <v>0.9323109628233333</v>
+        <v>1.165094786053333</v>
       </c>
       <c r="R7">
-        <v>8.390798665409999</v>
+        <v>10.48585307448</v>
       </c>
       <c r="S7">
-        <v>0.0117819003053952</v>
+        <v>0.01381620836105944</v>
       </c>
       <c r="T7">
-        <v>0.01178190030539521</v>
+        <v>0.01381620836105944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="H8">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="I8">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="J8">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.716522666666667</v>
+        <v>4.019613333333333</v>
       </c>
       <c r="N8">
-        <v>14.149568</v>
+        <v>12.05884</v>
       </c>
       <c r="O8">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="P8">
-        <v>0.530211572117814</v>
+        <v>0.4377217086785624</v>
       </c>
       <c r="Q8">
-        <v>18.59513430033778</v>
+        <v>19.80442051395556</v>
       </c>
       <c r="R8">
-        <v>167.35620870304</v>
+        <v>178.2397846256</v>
       </c>
       <c r="S8">
-        <v>0.2349924298096341</v>
+        <v>0.2348495620838909</v>
       </c>
       <c r="T8">
-        <v>0.2349924298096341</v>
+        <v>0.2348495620838909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="H9">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="I9">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="J9">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,22 +989,22 @@
         <v>0.709422</v>
       </c>
       <c r="O9">
-        <v>0.02658340904223816</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="P9">
-        <v>0.02658340904223817</v>
+        <v>0.02575118419467902</v>
       </c>
       <c r="Q9">
-        <v>0.9323109628233333</v>
+        <v>1.165094786053333</v>
       </c>
       <c r="R9">
-        <v>8.390798665409999</v>
+        <v>10.48585307448</v>
       </c>
       <c r="S9">
-        <v>0.0117819003053952</v>
+        <v>0.01381620836105944</v>
       </c>
       <c r="T9">
-        <v>0.01178190030539521</v>
+        <v>0.01381620836105944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="H10">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="I10">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="J10">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.942551666666667</v>
+        <v>4.926946666666667</v>
       </c>
       <c r="N10">
-        <v>11.827655</v>
+        <v>14.78084</v>
       </c>
       <c r="O10">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="P10">
-        <v>0.4432050188399478</v>
+        <v>0.5365271071267587</v>
       </c>
       <c r="Q10">
-        <v>15.54371364433611</v>
+        <v>24.27480345617778</v>
       </c>
       <c r="R10">
-        <v>139.893422799025</v>
+        <v>218.4732311056</v>
       </c>
       <c r="S10">
-        <v>0.1964306887249185</v>
+        <v>0.2878613366818084</v>
       </c>
       <c r="T10">
-        <v>0.1964306887249185</v>
+        <v>0.2878613366818084</v>
       </c>
     </row>
   </sheetData>
